--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_274.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_274.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32780-d225782-Reviews-Extended_Stay_America_Orange_County_John_Wayne_Airport-Newport_Beach_California.html</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>218</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Extended-Stay-America-Orange-County-John-Wayne-Airport.h569190.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_274.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_274.xlsx
@@ -4122,7 +4122,7 @@
         <v>41259</v>
       </c>
       <c r="B3" t="n">
-        <v>146687</v>
+        <v>178035</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -4193,7 +4193,7 @@
         <v>41259</v>
       </c>
       <c r="B4" t="n">
-        <v>146688</v>
+        <v>178036</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -4258,7 +4258,7 @@
         <v>41259</v>
       </c>
       <c r="B5" t="n">
-        <v>146689</v>
+        <v>178037</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -4333,7 +4333,7 @@
         <v>41259</v>
       </c>
       <c r="B6" t="n">
-        <v>146690</v>
+        <v>178038</v>
       </c>
       <c r="C6" t="s">
         <v>89</v>
@@ -4552,7 +4552,7 @@
         <v>41259</v>
       </c>
       <c r="B9" t="n">
-        <v>146691</v>
+        <v>178039</v>
       </c>
       <c r="C9" t="s">
         <v>117</v>
@@ -4627,7 +4627,7 @@
         <v>41259</v>
       </c>
       <c r="B10" t="n">
-        <v>146692</v>
+        <v>178040</v>
       </c>
       <c r="C10" t="s">
         <v>126</v>
@@ -4702,7 +4702,7 @@
         <v>41259</v>
       </c>
       <c r="B11" t="n">
-        <v>146693</v>
+        <v>178041</v>
       </c>
       <c r="C11" t="s">
         <v>135</v>
@@ -4838,7 +4838,7 @@
         <v>41259</v>
       </c>
       <c r="B13" t="n">
-        <v>146694</v>
+        <v>178042</v>
       </c>
       <c r="C13" t="s">
         <v>155</v>
@@ -4909,7 +4909,7 @@
         <v>41259</v>
       </c>
       <c r="B14" t="n">
-        <v>146695</v>
+        <v>178043</v>
       </c>
       <c r="C14" t="s">
         <v>164</v>
@@ -4984,7 +4984,7 @@
         <v>41259</v>
       </c>
       <c r="B15" t="n">
-        <v>146696</v>
+        <v>178044</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -5059,7 +5059,7 @@
         <v>41259</v>
       </c>
       <c r="B16" t="n">
-        <v>146697</v>
+        <v>178045</v>
       </c>
       <c r="C16" t="s">
         <v>183</v>
@@ -5424,7 +5424,7 @@
         <v>41259</v>
       </c>
       <c r="B21" t="n">
-        <v>146698</v>
+        <v>178046</v>
       </c>
       <c r="C21" t="s">
         <v>226</v>
@@ -5499,7 +5499,7 @@
         <v>41259</v>
       </c>
       <c r="B22" t="n">
-        <v>146699</v>
+        <v>178047</v>
       </c>
       <c r="C22" t="s">
         <v>236</v>
@@ -5574,7 +5574,7 @@
         <v>41259</v>
       </c>
       <c r="B23" t="n">
-        <v>146700</v>
+        <v>178048</v>
       </c>
       <c r="C23" t="s">
         <v>246</v>
@@ -5649,7 +5649,7 @@
         <v>41259</v>
       </c>
       <c r="B24" t="n">
-        <v>146701</v>
+        <v>178049</v>
       </c>
       <c r="C24" t="s">
         <v>255</v>
@@ -5724,7 +5724,7 @@
         <v>41259</v>
       </c>
       <c r="B25" t="n">
-        <v>146702</v>
+        <v>178050</v>
       </c>
       <c r="C25" t="s">
         <v>265</v>
@@ -5799,7 +5799,7 @@
         <v>41259</v>
       </c>
       <c r="B26" t="n">
-        <v>146703</v>
+        <v>178051</v>
       </c>
       <c r="C26" t="s">
         <v>273</v>
@@ -5933,7 +5933,7 @@
         <v>41259</v>
       </c>
       <c r="B28" t="n">
-        <v>146704</v>
+        <v>178052</v>
       </c>
       <c r="C28" t="s">
         <v>291</v>
@@ -6004,7 +6004,7 @@
         <v>41259</v>
       </c>
       <c r="B29" t="n">
-        <v>146705</v>
+        <v>178053</v>
       </c>
       <c r="C29" t="s">
         <v>300</v>
@@ -6069,7 +6069,7 @@
         <v>41259</v>
       </c>
       <c r="B30" t="n">
-        <v>146706</v>
+        <v>178054</v>
       </c>
       <c r="C30" t="s">
         <v>309</v>
@@ -6140,7 +6140,7 @@
         <v>41259</v>
       </c>
       <c r="B31" t="n">
-        <v>146707</v>
+        <v>178055</v>
       </c>
       <c r="C31" t="s">
         <v>319</v>
@@ -6211,7 +6211,7 @@
         <v>41259</v>
       </c>
       <c r="B32" t="n">
-        <v>146708</v>
+        <v>178056</v>
       </c>
       <c r="C32" t="s">
         <v>328</v>
@@ -6282,7 +6282,7 @@
         <v>41259</v>
       </c>
       <c r="B33" t="n">
-        <v>146709</v>
+        <v>178057</v>
       </c>
       <c r="C33" t="s">
         <v>338</v>
@@ -6353,7 +6353,7 @@
         <v>41259</v>
       </c>
       <c r="B34" t="n">
-        <v>146710</v>
+        <v>178058</v>
       </c>
       <c r="C34" t="s">
         <v>347</v>
@@ -6418,7 +6418,7 @@
         <v>41259</v>
       </c>
       <c r="B35" t="n">
-        <v>146711</v>
+        <v>178059</v>
       </c>
       <c r="C35" t="s">
         <v>356</v>
@@ -6623,7 +6623,7 @@
         <v>41259</v>
       </c>
       <c r="B38" t="n">
-        <v>146712</v>
+        <v>178060</v>
       </c>
       <c r="C38" t="s">
         <v>385</v>
@@ -6692,7 +6692,7 @@
         <v>41259</v>
       </c>
       <c r="B39" t="n">
-        <v>146713</v>
+        <v>178061</v>
       </c>
       <c r="C39" t="s">
         <v>394</v>
@@ -6757,7 +6757,7 @@
         <v>41259</v>
       </c>
       <c r="B40" t="n">
-        <v>146714</v>
+        <v>178062</v>
       </c>
       <c r="C40" t="s">
         <v>403</v>
@@ -6822,7 +6822,7 @@
         <v>41259</v>
       </c>
       <c r="B41" t="n">
-        <v>146715</v>
+        <v>178063</v>
       </c>
       <c r="C41" t="s">
         <v>413</v>
@@ -6891,7 +6891,7 @@
         <v>41259</v>
       </c>
       <c r="B42" t="n">
-        <v>146716</v>
+        <v>178064</v>
       </c>
       <c r="C42" t="s">
         <v>422</v>
@@ -6960,7 +6960,7 @@
         <v>41259</v>
       </c>
       <c r="B43" t="n">
-        <v>146717</v>
+        <v>178065</v>
       </c>
       <c r="C43" t="s">
         <v>432</v>
@@ -7031,7 +7031,7 @@
         <v>41259</v>
       </c>
       <c r="B44" t="n">
-        <v>146718</v>
+        <v>178066</v>
       </c>
       <c r="C44" t="s">
         <v>441</v>
@@ -7100,7 +7100,7 @@
         <v>41259</v>
       </c>
       <c r="B45" t="n">
-        <v>146719</v>
+        <v>178067</v>
       </c>
       <c r="C45" t="s">
         <v>451</v>
@@ -7171,7 +7171,7 @@
         <v>41259</v>
       </c>
       <c r="B46" t="n">
-        <v>146720</v>
+        <v>178068</v>
       </c>
       <c r="C46" t="s">
         <v>460</v>
@@ -7232,7 +7232,7 @@
         <v>41259</v>
       </c>
       <c r="B47" t="n">
-        <v>146721</v>
+        <v>178069</v>
       </c>
       <c r="C47" t="s">
         <v>469</v>
@@ -7301,7 +7301,7 @@
         <v>41259</v>
       </c>
       <c r="B48" t="n">
-        <v>146722</v>
+        <v>178070</v>
       </c>
       <c r="C48" t="s">
         <v>479</v>
@@ -7372,7 +7372,7 @@
         <v>41259</v>
       </c>
       <c r="B49" t="n">
-        <v>146723</v>
+        <v>178071</v>
       </c>
       <c r="C49" t="s">
         <v>488</v>
@@ -7441,7 +7441,7 @@
         <v>41259</v>
       </c>
       <c r="B50" t="n">
-        <v>146724</v>
+        <v>178072</v>
       </c>
       <c r="C50" t="s">
         <v>497</v>
@@ -7502,7 +7502,7 @@
         <v>41259</v>
       </c>
       <c r="B51" t="n">
-        <v>146725</v>
+        <v>178073</v>
       </c>
       <c r="C51" t="s">
         <v>506</v>
@@ -7573,7 +7573,7 @@
         <v>41259</v>
       </c>
       <c r="B52" t="n">
-        <v>146726</v>
+        <v>178074</v>
       </c>
       <c r="C52" t="s">
         <v>516</v>
@@ -7713,7 +7713,7 @@
         <v>41259</v>
       </c>
       <c r="B54" t="n">
-        <v>146727</v>
+        <v>178075</v>
       </c>
       <c r="C54" t="s">
         <v>535</v>
@@ -7853,7 +7853,7 @@
         <v>41259</v>
       </c>
       <c r="B56" t="n">
-        <v>146728</v>
+        <v>178076</v>
       </c>
       <c r="C56" t="s">
         <v>552</v>
@@ -7914,7 +7914,7 @@
         <v>41259</v>
       </c>
       <c r="B57" t="n">
-        <v>146729</v>
+        <v>178077</v>
       </c>
       <c r="C57" t="s">
         <v>559</v>
@@ -8044,7 +8044,7 @@
         <v>41259</v>
       </c>
       <c r="B59" t="n">
-        <v>146730</v>
+        <v>178078</v>
       </c>
       <c r="C59" t="s">
         <v>578</v>
@@ -8113,7 +8113,7 @@
         <v>41259</v>
       </c>
       <c r="B60" t="n">
-        <v>146731</v>
+        <v>178079</v>
       </c>
       <c r="C60" t="s">
         <v>588</v>
@@ -8255,7 +8255,7 @@
         <v>41259</v>
       </c>
       <c r="B62" t="n">
-        <v>146732</v>
+        <v>178080</v>
       </c>
       <c r="C62" t="s">
         <v>608</v>
@@ -8316,7 +8316,7 @@
         <v>41259</v>
       </c>
       <c r="B63" t="n">
-        <v>146733</v>
+        <v>178081</v>
       </c>
       <c r="C63" t="s">
         <v>617</v>
@@ -8381,7 +8381,7 @@
         <v>41259</v>
       </c>
       <c r="B64" t="n">
-        <v>146734</v>
+        <v>178082</v>
       </c>
       <c r="C64" t="s">
         <v>627</v>
@@ -8450,7 +8450,7 @@
         <v>41259</v>
       </c>
       <c r="B65" t="n">
-        <v>146735</v>
+        <v>178083</v>
       </c>
       <c r="C65" t="s">
         <v>635</v>
@@ -8515,7 +8515,7 @@
         <v>41259</v>
       </c>
       <c r="B66" t="n">
-        <v>146736</v>
+        <v>178084</v>
       </c>
       <c r="C66" t="s">
         <v>645</v>
@@ -8586,7 +8586,7 @@
         <v>41259</v>
       </c>
       <c r="B67" t="n">
-        <v>146737</v>
+        <v>178085</v>
       </c>
       <c r="C67" t="s">
         <v>655</v>
@@ -8651,7 +8651,7 @@
         <v>41259</v>
       </c>
       <c r="B68" t="n">
-        <v>146738</v>
+        <v>178086</v>
       </c>
       <c r="C68" t="s">
         <v>662</v>
@@ -8722,7 +8722,7 @@
         <v>41259</v>
       </c>
       <c r="B69" t="n">
-        <v>146739</v>
+        <v>178087</v>
       </c>
       <c r="C69" t="s">
         <v>671</v>
@@ -8787,7 +8787,7 @@
         <v>41259</v>
       </c>
       <c r="B70" t="n">
-        <v>146740</v>
+        <v>178088</v>
       </c>
       <c r="C70" t="s">
         <v>681</v>
@@ -8923,7 +8923,7 @@
         <v>41259</v>
       </c>
       <c r="B72" t="n">
-        <v>146741</v>
+        <v>178089</v>
       </c>
       <c r="C72" t="s">
         <v>695</v>
@@ -8988,7 +8988,7 @@
         <v>41259</v>
       </c>
       <c r="B73" t="n">
-        <v>146742</v>
+        <v>178090</v>
       </c>
       <c r="C73" t="s">
         <v>702</v>
@@ -9059,7 +9059,7 @@
         <v>41259</v>
       </c>
       <c r="B74" t="n">
-        <v>146743</v>
+        <v>178091</v>
       </c>
       <c r="C74" t="s">
         <v>712</v>
@@ -9124,7 +9124,7 @@
         <v>41259</v>
       </c>
       <c r="B75" t="n">
-        <v>146744</v>
+        <v>178092</v>
       </c>
       <c r="C75" t="s">
         <v>721</v>
@@ -9195,7 +9195,7 @@
         <v>41259</v>
       </c>
       <c r="B76" t="n">
-        <v>146745</v>
+        <v>178093</v>
       </c>
       <c r="C76" t="s">
         <v>731</v>
@@ -9400,7 +9400,7 @@
         <v>41259</v>
       </c>
       <c r="B79" t="n">
-        <v>146746</v>
+        <v>178094</v>
       </c>
       <c r="C79" t="s">
         <v>754</v>
@@ -9542,7 +9542,7 @@
         <v>41259</v>
       </c>
       <c r="B81" t="n">
-        <v>146747</v>
+        <v>178095</v>
       </c>
       <c r="C81" t="s">
         <v>773</v>
@@ -9684,7 +9684,7 @@
         <v>41259</v>
       </c>
       <c r="B83" t="n">
-        <v>146748</v>
+        <v>178096</v>
       </c>
       <c r="C83" t="s">
         <v>790</v>
@@ -9755,7 +9755,7 @@
         <v>41259</v>
       </c>
       <c r="B84" t="n">
-        <v>146749</v>
+        <v>178097</v>
       </c>
       <c r="C84" t="s">
         <v>799</v>
@@ -9895,7 +9895,7 @@
         <v>41259</v>
       </c>
       <c r="B86" t="n">
-        <v>146750</v>
+        <v>178098</v>
       </c>
       <c r="C86" t="s">
         <v>813</v>
@@ -9966,7 +9966,7 @@
         <v>41259</v>
       </c>
       <c r="B87" t="n">
-        <v>146751</v>
+        <v>178099</v>
       </c>
       <c r="C87" t="s">
         <v>823</v>
@@ -10037,7 +10037,7 @@
         <v>41259</v>
       </c>
       <c r="B88" t="n">
-        <v>146752</v>
+        <v>178100</v>
       </c>
       <c r="C88" t="s">
         <v>832</v>
@@ -10108,7 +10108,7 @@
         <v>41259</v>
       </c>
       <c r="B89" t="n">
-        <v>146753</v>
+        <v>178101</v>
       </c>
       <c r="C89" t="s">
         <v>841</v>
@@ -10179,7 +10179,7 @@
         <v>41259</v>
       </c>
       <c r="B90" t="n">
-        <v>146754</v>
+        <v>178102</v>
       </c>
       <c r="C90" t="s">
         <v>850</v>
@@ -10382,7 +10382,7 @@
         <v>41259</v>
       </c>
       <c r="B93" t="n">
-        <v>146755</v>
+        <v>178103</v>
       </c>
       <c r="C93" t="s">
         <v>874</v>
@@ -10522,7 +10522,7 @@
         <v>41259</v>
       </c>
       <c r="B95" t="n">
-        <v>146756</v>
+        <v>178104</v>
       </c>
       <c r="C95" t="s">
         <v>893</v>
@@ -10597,7 +10597,7 @@
         <v>41259</v>
       </c>
       <c r="B96" t="n">
-        <v>146757</v>
+        <v>178105</v>
       </c>
       <c r="C96" t="s">
         <v>901</v>
@@ -10739,7 +10739,7 @@
         <v>41259</v>
       </c>
       <c r="B98" t="n">
-        <v>146758</v>
+        <v>148524</v>
       </c>
       <c r="C98" t="s">
         <v>915</v>
@@ -10814,7 +10814,7 @@
         <v>41259</v>
       </c>
       <c r="B99" t="n">
-        <v>146759</v>
+        <v>178106</v>
       </c>
       <c r="C99" t="s">
         <v>924</v>
@@ -10875,7 +10875,7 @@
         <v>41259</v>
       </c>
       <c r="B100" t="n">
-        <v>146760</v>
+        <v>178107</v>
       </c>
       <c r="C100" t="s">
         <v>931</v>
@@ -10950,7 +10950,7 @@
         <v>41259</v>
       </c>
       <c r="B101" t="n">
-        <v>146761</v>
+        <v>178108</v>
       </c>
       <c r="C101" t="s">
         <v>938</v>
@@ -11021,7 +11021,7 @@
         <v>41259</v>
       </c>
       <c r="B102" t="n">
-        <v>146762</v>
+        <v>178109</v>
       </c>
       <c r="C102" t="s">
         <v>947</v>
@@ -11096,7 +11096,7 @@
         <v>41259</v>
       </c>
       <c r="B103" t="n">
-        <v>146763</v>
+        <v>178110</v>
       </c>
       <c r="C103" t="s">
         <v>957</v>
@@ -11161,7 +11161,7 @@
         <v>41259</v>
       </c>
       <c r="B104" t="n">
-        <v>146764</v>
+        <v>178111</v>
       </c>
       <c r="C104" t="s">
         <v>967</v>
@@ -11236,7 +11236,7 @@
         <v>41259</v>
       </c>
       <c r="B105" t="n">
-        <v>146765</v>
+        <v>178112</v>
       </c>
       <c r="C105" t="s">
         <v>976</v>
@@ -11311,7 +11311,7 @@
         <v>41259</v>
       </c>
       <c r="B106" t="n">
-        <v>146766</v>
+        <v>178113</v>
       </c>
       <c r="C106" t="s">
         <v>984</v>
@@ -11376,7 +11376,7 @@
         <v>41259</v>
       </c>
       <c r="B107" t="n">
-        <v>146767</v>
+        <v>178114</v>
       </c>
       <c r="C107" t="s">
         <v>991</v>
@@ -11451,7 +11451,7 @@
         <v>41259</v>
       </c>
       <c r="B108" t="n">
-        <v>146768</v>
+        <v>178115</v>
       </c>
       <c r="C108" t="s">
         <v>1001</v>
@@ -11526,7 +11526,7 @@
         <v>41259</v>
       </c>
       <c r="B109" t="n">
-        <v>146769</v>
+        <v>178116</v>
       </c>
       <c r="C109" t="s">
         <v>1011</v>
@@ -11597,7 +11597,7 @@
         <v>41259</v>
       </c>
       <c r="B110" t="n">
-        <v>146770</v>
+        <v>178117</v>
       </c>
       <c r="C110" t="s">
         <v>1019</v>
@@ -11672,7 +11672,7 @@
         <v>41259</v>
       </c>
       <c r="B111" t="n">
-        <v>146771</v>
+        <v>178118</v>
       </c>
       <c r="C111" t="s">
         <v>1029</v>
@@ -11747,7 +11747,7 @@
         <v>41259</v>
       </c>
       <c r="B112" t="n">
-        <v>146772</v>
+        <v>178119</v>
       </c>
       <c r="C112" t="s">
         <v>1038</v>
@@ -11822,7 +11822,7 @@
         <v>41259</v>
       </c>
       <c r="B113" t="n">
-        <v>146773</v>
+        <v>178120</v>
       </c>
       <c r="C113" t="s">
         <v>1047</v>
@@ -11972,7 +11972,7 @@
         <v>41259</v>
       </c>
       <c r="B115" t="n">
-        <v>146774</v>
+        <v>178121</v>
       </c>
       <c r="C115" t="s">
         <v>1066</v>
@@ -12047,7 +12047,7 @@
         <v>41259</v>
       </c>
       <c r="B116" t="n">
-        <v>146775</v>
+        <v>178122</v>
       </c>
       <c r="C116" t="s">
         <v>1076</v>
@@ -12118,7 +12118,7 @@
         <v>41259</v>
       </c>
       <c r="B117" t="n">
-        <v>146776</v>
+        <v>178123</v>
       </c>
       <c r="C117" t="s">
         <v>1085</v>
@@ -12193,7 +12193,7 @@
         <v>41259</v>
       </c>
       <c r="B118" t="n">
-        <v>146777</v>
+        <v>178124</v>
       </c>
       <c r="C118" t="s">
         <v>1095</v>
@@ -12264,7 +12264,7 @@
         <v>41259</v>
       </c>
       <c r="B119" t="n">
-        <v>146778</v>
+        <v>178125</v>
       </c>
       <c r="C119" t="s">
         <v>1104</v>
@@ -12339,7 +12339,7 @@
         <v>41259</v>
       </c>
       <c r="B120" t="n">
-        <v>146779</v>
+        <v>178126</v>
       </c>
       <c r="C120" t="s">
         <v>1114</v>
@@ -12564,7 +12564,7 @@
         <v>41259</v>
       </c>
       <c r="B123" t="n">
-        <v>146780</v>
+        <v>178127</v>
       </c>
       <c r="C123" t="s">
         <v>1143</v>
@@ -12639,7 +12639,7 @@
         <v>41259</v>
       </c>
       <c r="B124" t="n">
-        <v>146781</v>
+        <v>178128</v>
       </c>
       <c r="C124" t="s">
         <v>1153</v>
@@ -12714,7 +12714,7 @@
         <v>41259</v>
       </c>
       <c r="B125" t="n">
-        <v>146782</v>
+        <v>178129</v>
       </c>
       <c r="C125" t="s">
         <v>1160</v>
